--- a/Thingstodo.xlsx
+++ b/Thingstodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Projects\Blank project for testing code for new proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98CFE5-6F70-4A9D-A2E8-6C86DD48D30D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB1EDC-2EF2-407B-BF15-59CA73AB1C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{4822AB14-7C0B-422B-8002-6D1F08E603C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Additional tasks to do:</t>
   </si>
@@ -151,6 +151,82 @@
   </si>
   <si>
     <t>Add a (separate to main proj) git repo and push the statssystem to it</t>
+  </si>
+  <si>
+    <t>Important:</t>
+  </si>
+  <si>
+    <t>Check github mail thing!!!!!!</t>
+  </si>
+  <si>
+    <t>Add onTimerEnd actions to timers (Actions can be added to interfaces so Itimer too)</t>
+  </si>
+  <si>
+    <t>Figure out what to do next</t>
+  </si>
+  <si>
+    <t>Add SerializedTypes (dictionary and queue) to main proj</t>
+  </si>
+  <si>
+    <t>Update main proj on github</t>
+  </si>
+  <si>
+    <t>Possibly bad architecture:
+StatsSystem has separate method to handle TimedModifiers but TimedModifiers are also StatModifiers (by inheriting from them)
+Create a base class for the modifiers and then have TimedModifier and StatModifier inherit from it? Although there'd always only be two...</t>
+  </si>
+  <si>
+    <t>Add Singleton for Time Ticking</t>
+  </si>
+  <si>
+    <t>Make sure Singleton gets the correct name when created</t>
+  </si>
+  <si>
+    <t>Migrate timed modifier generation to StatsSystemBehaviour (statsSystem shouldn't handle it because it handles StatModifier only, the behaviour would take care of the timer creation and timerticker part)</t>
+  </si>
+  <si>
+    <t>Test everything out</t>
+  </si>
+  <si>
+    <t>Change the names so they actually fit together</t>
+  </si>
+  <si>
+    <t>at least 1h of the maths for game dev course</t>
+  </si>
+  <si>
+    <t>Last touches</t>
+  </si>
+  <si>
+    <t>Research on health/humanoid systems in games</t>
+  </si>
+  <si>
+    <t>Implement above to work with stats (at leasy health, maxhp and hp regen based on stats)</t>
+  </si>
+  <si>
+    <t>Fix StatType comparison function</t>
+  </si>
+  <si>
+    <t>Health System</t>
+  </si>
+  <si>
+    <t>HP, maxhp, time per HP regen, HP regen (amount) depend on stats</t>
+  </si>
+  <si>
+    <t>humanoid can be damaged, healed, killed, may be able to respawn, has an onDeathEvent event that fires whenever it gets killed</t>
+  </si>
+  <si>
+    <t>Change humanoid name to healthsys since it will really only be a health system</t>
+  </si>
+  <si>
+    <t>Respawning will be handled by external objects (for all health systems)</t>
+  </si>
+  <si>
+    <t>What if all health systems are the same? Everyone can be damaged, die, their health set on awake by their stats, the main difference being not all of them can be healed
+(Depends on resolve stat)</t>
+  </si>
+  <si>
+    <t>Refactor StatsSystem, StatsSystemBehaviour has GetStat/AddModifier/RemoveModifier methods but HealthSystemBehaviour uses StatsSystem, either HealthSystemBehaviour uses StatsSystemBehaviour and it's methods (kinda wanted it the other way around for unit testing and so that POCO's don't have relations with monobehaviours but mocking monobehaviours isn't exactly rocket science /shrug)
+(spend max 20-30 min on this)</t>
   </si>
 </sst>
 </file>
@@ -563,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110052CC-9C54-45BD-90EE-AFCEAA7123FD}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +651,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -585,8 +661,17 @@
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -596,8 +681,17 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -607,40 +701,64 @@
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -648,78 +766,126 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="19" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
